--- a/data/P20versusRestIncomeTrendsECA.xlsx
+++ b/data/P20versusRestIncomeTrendsECA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{663B46F9-8107-4DD6-B28B-B88E245C6305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A05C1E6-A6B9-4D6C-9D65-2D9CEA0CD5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{8153584A-BF5F-4718-A190-53E4F5D5CF28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{80D31F8A-27A8-4EB3-922B-BB0BAF8D629F}"/>
   </bookViews>
   <sheets>
     <sheet name="Albania" sheetId="2" r:id="rId1"/>
@@ -235,7 +235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A5111C-2DAF-4314-B05F-E49EF5E210D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20797616-14EF-4EAE-A2E3-F55E378396A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -293,7 +293,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44445B1-FDF5-4930-8D60-ACE0FACCDFEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0856810D-8AA6-4CB6-B360-1E56C403254B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -351,7 +351,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FCFC48-7286-4E89-BB52-53FF75E20CCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E946A5-9740-48BF-B8CA-644A038336EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -409,7 +409,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7602B9-B6F3-4BCC-85F8-0FBB40522026}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C732AB2-ED29-4865-AA04-5C5B01FAAE01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +467,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC8FC95-0DF9-4FE1-A774-8F4EFD9462E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F343E62-AD28-4A5D-946D-30AA3E562D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -525,7 +525,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC78DDD-ABED-4888-9407-E09145AB2B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABB45D9-FE97-4ACD-AD31-58E8ECC98ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1985B6-69CA-4AE2-B676-A1A2FAB42F90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244485E2-043B-404C-8DAD-A52849BF41B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52B0E62-3E49-49D4-A316-2FD3FBC9881A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF507649-C616-4371-95D2-66EB56EF23B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -699,7 +699,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FB1467-AB20-4811-A5D8-7D0C38864E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F75F86-D689-43EA-9CBB-12448C92C6EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +757,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12FCD55-EB38-4861-999D-92336CE5DF9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3319D6FC-F2A6-4EA6-A825-F510F9C81D06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EE0374-01C6-450F-97B9-EF1947628A2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CB719A-4A30-44C7-9C7C-D4F6B782EB08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +873,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E725E1BB-B787-4D83-9A83-C37B3B44D652}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190BE20D-16A6-4A3D-B89F-5FF039397418}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,7 +931,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5149F32-4954-47A5-A352-E473B0CC592D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3010D2CD-97D5-4881-A55F-1C9BA8031EA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B56F613-8C71-46C6-A03F-23CB92B81FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88A1F74-EEAA-4B2C-9080-5B8A138218F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1047,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A180ABF7-CF1E-476B-BCD9-5464141F3BC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2863CF09-AD5B-416E-8B19-D0BC96CBC939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1105,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74E5023-D9EF-4B85-AC1F-3D2A920F884E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596B6CCC-0ACD-4278-85E4-317FA203E09B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB6343B-51A6-4B57-9C02-C1433F80275B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B23FC5-1A89-4DAA-A1C1-7FD86590EC89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7914B7-A08E-4E0B-AB35-D4007C566849}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F0FA7B-1F13-4730-9047-425C83C521D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6FBA65-3447-49F8-B68F-350DA32B4296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DF3BC3-2E79-449A-9918-FA2FB77A2F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B861ED3D-2086-4E84-A993-828770BFE281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FADAC6-101E-4D1C-BD86-39D7FD982093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B40D48-12D6-444C-BD94-24291794C926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538E0B0D-7B8C-409D-908C-AE396698AC5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5185A4C1-62AF-4019-B9E4-6992AEA60E74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024EEF49-C2B1-428C-B2D2-02FD01F0BD94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E024DE-C0FE-4903-BF1A-76ACBE6F2D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A713E67-91E6-4CA3-9126-97E6AAF57C1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D2673C-7946-46FE-A03E-E30DBD75036D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F013F4-57EE-4A00-8D7E-90BD215EBB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E353200-6584-4227-9826-FC7B21B02F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC43382-498E-47E3-A363-3AE0A4056839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1BA639-B304-4A10-9B8F-9AF6C22934C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06431128-DC80-4E65-BF5C-7014BF0E8340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841363C9-12F8-4F67-B6EA-5F9C593CCE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C71336C-716F-48A2-9504-B8FC246B9E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9F8B8C-1B0A-4899-A187-8985EEA91E49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320293B1-6D22-40A8-896E-1375944B0585}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1859,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDCE8FD-BD6C-4CA2-9F46-E6FA032C7D18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEFF51E-44CC-4101-977C-3D4DA37B7604}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B84699-E9F1-461D-B153-9C6B11873247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803141DA-96FB-43A2-8DE8-EF02976F3BFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DA4007-7C23-481F-84F9-A33893370689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D65185E-0A68-424E-9326-4F101FCCD35B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2489,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EB87AE-0CF8-47ED-8DFC-5A47727B34AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5BD678-0D81-4D4E-9DA8-6CA1D4FAE82E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2703,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0191D51-7A95-4949-90C8-778D47B68015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F50853B-CC6A-456E-B43B-E9A16301AA5D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2917,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A27A5FC-AC77-40B3-81F1-466E9B7BD5A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70477E76-A00A-444C-9EA7-C4ED5CB64759}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3155,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD57376-DEC3-4393-90A5-61EDA6ACCE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5295C0C-7E5E-4D2B-875C-1262D95EEC03}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3363,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD7079-BD20-4451-A3E5-F4E55FB0D69B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB8117E-F3A0-44BE-A93D-BCF0A3CB17D5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3565,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51FF64E-FE0E-4DF8-976B-0D6648DD85C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4022744-E84E-4C39-9792-2BE8F67286D3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5922706A-8AC0-466F-B575-DE254C14AC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266F641-92EF-4D8C-96D9-4A61250474A2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4035,7 +4035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB74760-6C8E-45D5-85DE-869089905CDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24955617-0164-45EC-A946-EBEED3B75101}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4243,7 +4243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB29E9-2DD0-4CD1-BE6B-68ABAA2282DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFA589F-9E6C-48B5-8B3E-54D1B69A7F45}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4451,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFB62B0-4AEC-4092-A0C0-39CABA77314F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DAAD3C-8CF4-4BD2-84EC-029B2FEB5393}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4689,7 +4689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BB650F-6BE3-4B57-8FF4-2491A8923A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709EC54A-DEF7-4CC6-AF1B-AEC8650C96C8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4927,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE99455-98FF-492F-BCF8-2BEF7FD4C014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C9EADB-CB7D-4310-AF17-56339F0213C6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5165,7 +5165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37F200-FDF8-40D2-B0E3-F875CF32284F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A987C3A-32F3-4250-876C-9786C4D69EFB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5403,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB6A0B-DB57-472A-9947-697773D5184B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF4E464-067F-4C62-8C42-40273EAD1015}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5627,7 +5627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BC9C35-9981-4701-80D7-3C5064E26921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B5079-C4C2-4786-AB63-A594E1DA96CE}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5821,7 +5821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BEE93C-F9F5-4988-8442-01155BBC94A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5504A509-B2AB-4519-A336-2AD5D345427C}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6045,7 +6045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C68FC3E-282A-439A-B05E-60C123507C80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B479085-71C9-48DA-9D1D-4D3A635C74FE}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6245,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F9EC8-6851-43E8-834C-790F79BBD834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991CA2DE-CABB-4951-A76D-2E8C985869CB}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6469,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F47748-6B58-4027-8804-5FBE0F33C86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A238563A-952F-4930-AD86-44F1B25BB9FE}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6645,7 +6645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0B69D2-69E1-41C4-BEE1-8D149A80CAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979B2604-F9DA-4BA9-AC99-9D2A6670885D}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6869,7 +6869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AD3AA8-7FA9-47E5-8950-FD29749B7745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C192CF4-4CB5-410D-8A60-20E5467BB124}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7093,7 +7093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A65D2C-077C-4B71-A387-BCC0D267C32B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA096F84-59ED-4ED1-B3E8-1FCEF0D5A823}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7283,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F8B502-390D-42AE-9337-FD2B9236B587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE16FFF-E4F8-4F94-9DD0-E35692FA160B}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7451,7 +7451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A1FDAE-894A-412A-A225-524F454CF185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6A7933-CAFF-469E-834E-70C0409779B9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7641,7 +7641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFFCD47-0D42-48BE-8387-82AC9ADFE857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47AE0FB-754C-4702-B410-EB7EC8D22E8B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7879,7 +7879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB3E87F-9639-474A-83F9-2F09F6A87BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6505F6-5A6B-4037-A67B-9F34D2541B0A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8099,7 +8099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A3E4E-2E28-4F56-B704-1056F68D4B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95C3D57-4539-4728-88D3-03DA1BD81036}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8271,7 +8271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09EAF6C-419F-4790-B42D-A34D30C207DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E7E54E-23A8-427F-AA31-D6E161CECCA4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8509,7 +8509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3760510-C991-4808-98CF-3A1951356B0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0A0E70-1099-41A5-A945-B3FDF00A73A5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsECA.xlsx
+++ b/data/P20versusRestIncomeTrendsECA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A05C1E6-A6B9-4D6C-9D65-2D9CEA0CD5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF704ED-2B8D-400F-8698-0F0D22C55271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{80D31F8A-27A8-4EB3-922B-BB0BAF8D629F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="25" activeTab="29" xr2:uid="{F80C0C55-E3B9-4596-9C44-53A418E9171B}"/>
   </bookViews>
   <sheets>
     <sheet name="Albania" sheetId="2" r:id="rId1"/>
@@ -235,7 +235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20797616-14EF-4EAE-A2E3-F55E378396A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3697CF9D-DB6F-427C-A015-6A4CDCA962B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -293,7 +293,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0856810D-8AA6-4CB6-B360-1E56C403254B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9990F5D-5434-4EB8-B3DF-8D8596190ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -351,7 +351,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E946A5-9740-48BF-B8CA-644A038336EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FECEE0F-15B4-4C62-A837-BE4882BD6521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -409,7 +409,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C732AB2-ED29-4865-AA04-5C5B01FAAE01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4F0D5A-0DA1-4F4D-A04B-6F37F3A84C5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +467,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F343E62-AD28-4A5D-946D-30AA3E562D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295BEDE3-90D1-4173-99A2-95334CA1E04B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -525,7 +525,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABB45D9-FE97-4ACD-AD31-58E8ECC98ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EF6F86-A388-4E5E-9ECC-27F1C30ABC43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244485E2-043B-404C-8DAD-A52849BF41B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD219294-82CC-4B7C-8DF5-8944AA064CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF507649-C616-4371-95D2-66EB56EF23B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10AB84B-178D-4B56-B1B5-FFE155C3DA12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -699,7 +699,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F75F86-D689-43EA-9CBB-12448C92C6EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B393D18-2294-46C8-93F6-2491BCD68C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +757,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3319D6FC-F2A6-4EA6-A825-F510F9C81D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2262FA-50AE-44FA-B5D2-0C491C2C44DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CB719A-4A30-44C7-9C7C-D4F6B782EB08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D327457-42FB-4BA2-89B9-F97C9712EE27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +873,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190BE20D-16A6-4A3D-B89F-5FF039397418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D042D6D-20CD-47FE-80C1-A9BC9D6AD34D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,7 +931,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3010D2CD-97D5-4881-A55F-1C9BA8031EA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97C1427-B7DA-476C-AF7E-6EA41BF74912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88A1F74-EEAA-4B2C-9080-5B8A138218F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CC0B7B-B134-43A3-9BB8-258C95FD2697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1047,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2863CF09-AD5B-416E-8B19-D0BC96CBC939}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD3DD9B-B211-45E3-B2D8-E9F37009BEA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1105,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596B6CCC-0ACD-4278-85E4-317FA203E09B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C3ECE5-122C-4DA5-890B-373213CEAFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B23FC5-1A89-4DAA-A1C1-7FD86590EC89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06C6294-2590-4D30-AAE3-76E058A26944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F0FA7B-1F13-4730-9047-425C83C521D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0027F1CB-4556-4A1A-BAAB-EE46196C0BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DF3BC3-2E79-449A-9918-FA2FB77A2F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4DC1E8-39DC-43FA-85E5-B5533D768C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FADAC6-101E-4D1C-BD86-39D7FD982093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB5CB50-B42F-49FA-B95A-AB1F7D36557B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1395,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538E0B0D-7B8C-409D-908C-AE396698AC5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C36892-F329-4CE2-8CDE-80650880DB2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024EEF49-C2B1-428C-B2D2-02FD01F0BD94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80C8C39-2A7C-4814-AC66-071136DD12EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A713E67-91E6-4CA3-9126-97E6AAF57C1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF56B49-934D-48B3-830D-1E0463A8D63A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F013F4-57EE-4A00-8D7E-90BD215EBB44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F4D27C-83E6-48F3-8CEC-92BC3884DC09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC43382-498E-47E3-A363-3AE0A4056839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DE4507-7463-40C0-89EE-D27C46EF407D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06431128-DC80-4E65-BF5C-7014BF0E8340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443FAD04-577C-4862-B008-FA1D8FBAF54B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C71336C-716F-48A2-9504-B8FC246B9E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08D94AF-4555-4AB1-A02F-628B2768EA92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320293B1-6D22-40A8-896E-1375944B0585}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAC3FF6-6881-45E3-BD66-9AB9815540B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1859,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEFF51E-44CC-4101-977C-3D4DA37B7604}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924EF207-59AD-4685-B1A8-7693D60839BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803141DA-96FB-43A2-8DE8-EF02976F3BFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB3BCA7-67D4-488D-A1D5-7767B6819DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D65185E-0A68-424E-9326-4F101FCCD35B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26FE28-10F9-4AB1-BC22-8B00170936BD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2489,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5BD678-0D81-4D4E-9DA8-6CA1D4FAE82E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F8ACF2-1E84-4ED2-8FC4-FC0359C80927}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2703,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F50853B-CC6A-456E-B43B-E9A16301AA5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8254E26A-E2FF-478F-8B83-A977A72075A3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2917,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70477E76-A00A-444C-9EA7-C4ED5CB64759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC105CC9-0650-4B5C-AF33-EB7022848867}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3155,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5295C0C-7E5E-4D2B-875C-1262D95EEC03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8873EEC-04B5-46CA-AFF7-F513EE9BBD36}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3363,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB8117E-F3A0-44BE-A93D-BCF0A3CB17D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2446A1A-8EF0-48A5-A820-9E6FDDBA5676}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3565,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4022744-E84E-4C39-9792-2BE8F67286D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985E025B-D452-4F0F-848E-864AF229222F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266F641-92EF-4D8C-96D9-4A61250474A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B10AC2-DBE4-462B-B35C-59AE0896B6F4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4035,7 +4035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24955617-0164-45EC-A946-EBEED3B75101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F887BFE-40BA-40DE-9A44-82B4C2E78D95}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4243,7 +4243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFA589F-9E6C-48B5-8B3E-54D1B69A7F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB091E1-B55C-433F-A240-99AD7FC454FF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4451,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DAAD3C-8CF4-4BD2-84EC-029B2FEB5393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0A6557-4AE9-4B1A-BFB3-C79BFA14508E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4689,7 +4689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709EC54A-DEF7-4CC6-AF1B-AEC8650C96C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB58101E-8C4E-4165-9030-0D81C8930515}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4927,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C9EADB-CB7D-4310-AF17-56339F0213C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0AEF6B-F971-43F5-8AF2-4AB7FBB2A3B7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5165,7 +5165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A987C3A-32F3-4250-876C-9786C4D69EFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96901869-6ACC-4689-9626-597503B342C4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5403,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF4E464-067F-4C62-8C42-40273EAD1015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E69896-8691-43D8-A596-17B5A991087C}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5627,7 +5627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B5079-C4C2-4786-AB63-A594E1DA96CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F9971-80B3-4CE8-B6CB-748A3CEACA72}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5821,7 +5821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5504A509-B2AB-4519-A336-2AD5D345427C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8EEFC0-A98A-4D8D-9BF8-25C578CC47B4}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6045,7 +6045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B479085-71C9-48DA-9D1D-4D3A635C74FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7C876C-1827-4A1D-A608-980B9DFD3A1C}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6245,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991CA2DE-CABB-4951-A76D-2E8C985869CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A7704-6FE7-4777-8A2D-D5AE6542D9BD}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6469,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A238563A-952F-4930-AD86-44F1B25BB9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4149B54F-56F3-4F23-8EC7-9783FD51FF96}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6645,7 +6645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979B2604-F9DA-4BA9-AC99-9D2A6670885D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ADFE70-019E-4401-A20F-9B46ED988B1C}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6869,7 +6869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C192CF4-4CB5-410D-8A60-20E5467BB124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB1672-4372-4BF8-9C35-8DA86987A252}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7093,7 +7093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA096F84-59ED-4ED1-B3E8-1FCEF0D5A823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C844484-E30B-471E-9076-0593BBA35317}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7283,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE16FFF-E4F8-4F94-9DD0-E35692FA160B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F58B3E-91A2-456A-AEB5-A2251F771702}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7451,7 +7451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6A7933-CAFF-469E-834E-70C0409779B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702C3A97-7750-4A91-BE2A-68622ED37341}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7641,7 +7641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47AE0FB-754C-4702-B410-EB7EC8D22E8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289F28F-8FD2-4FAD-BCC2-910F800FD90F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7879,7 +7879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6505F6-5A6B-4037-A67B-9F34D2541B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2308FDB-662D-4DF6-B12E-6003AA74C4A1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8099,7 +8099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95C3D57-4539-4728-88D3-03DA1BD81036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1EBC4-8A3C-4B5E-A814-103C6A64C3C6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8271,7 +8271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E7E54E-23A8-427F-AA31-D6E161CECCA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A0326A-8C16-4D34-BB26-88F752D9F4B4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8509,7 +8509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0A0E70-1099-41A5-A945-B3FDF00A73A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCB3DE-2F8D-458E-BDD1-BACA01EBAEA1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
